--- a/data_kkp/KKP_MASTER.xlsx
+++ b/data_kkp/KKP_MASTER.xlsx
@@ -7088,7 +7088,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -7158,7 +7158,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -7198,7 +7198,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data_kkp/KKP_MASTER.xlsx
+++ b/data_kkp/KKP_MASTER.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2678,37 +2678,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>410574 KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5534790303561000</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>JOICE SANDRA</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>40000000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2718,67 +2718,67 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>6743111</t>
+          <t>7326664</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>6743111</v>
+        <v>7326664</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>410574</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>5534790303561000</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>54</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>410574 KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790303561000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>JOICE SANDRA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>40000000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -2788,62 +2788,62 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>6652559</t>
+          <t>6743111</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>6652559</v>
+        <v>6743111</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>410574</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790303561000</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>DEKI ZULKARNAIN,S.ST</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2858,37 +2858,37 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>6523503</t>
+          <t>6652559</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>6523503</v>
+        <v>6652559</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>71</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2898,22 +2898,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790302233800</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2928,16 +2928,16 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>6438360</t>
+          <t>6523503</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>6438360</v>
+        <v>6523503</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2946,44 +2946,44 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790302233800</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>92</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>ARAFATUZ ZAKKY GULTOM</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2993,67 +2993,67 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>6077473</t>
+          <t>6438360</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>6077473</v>
+        <v>6438360</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>49</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>4340750300129200</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3063,67 +3063,67 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK MANDIRI</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5939307</t>
+          <t>6077473</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5939307</v>
+        <v>6077473</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>4340750300129200</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>85</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>ARAFATUZ ZAKKY GULTOM</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3133,62 +3133,62 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>5902139</t>
+          <t>5939307</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5902139</v>
+        <v>5939307</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>48</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>4340750300129200</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3203,67 +3203,67 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK MANDIRI</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5818770</t>
+          <t>5902139</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5818770</v>
+        <v>5902139</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>4340750300129200</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3278,62 +3278,62 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>5716521</t>
+          <t>5818770</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5716521</v>
+        <v>5818770</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>101</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Gus Hendrawansa,SE</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3348,62 +3348,62 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>5489670</t>
+          <t>5716521</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5489670</v>
+        <v>5716521</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>113</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3423,57 +3423,57 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4885170</t>
+          <t>5489670</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4885170</v>
+        <v>5489670</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3488,37 +3488,37 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4298266</t>
+          <t>4885170</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>4298266</v>
+        <v>4885170</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3533,22 +3533,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>RIVAL ABDUL JABAR</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -3558,16 +3558,16 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>4242930</t>
+          <t>4298266</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>4242930</v>
+        <v>4298266</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3581,39 +3581,39 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>066 BADAN NARKOTIKA NASIONAL (BNN)</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5534790301994400</t>
+          <t>5534790302349000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Efriyanto Tambunan, M.M.</t>
+          <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>40000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3628,62 +3628,62 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4043518</t>
+          <t>4242930</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>4043518</v>
+        <v>4242930</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>066</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>111079</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>5534790301994400</t>
+          <t>5534790302349000</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>121</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3698,67 +3698,67 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4002352</t>
+          <t>4151070</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>4002352</v>
+        <v>4151070</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>102</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>066 BADAN NARKOTIKA NASIONAL (BNN)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301994400</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>Efriyanto Tambunan, M.M.</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>40000000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -3768,62 +3768,62 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>3960692</t>
+          <t>4043518</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>3960692</v>
+        <v>4043518</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>066</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>111079</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301994400</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>98</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>098963 PENGADILAN NEGERI BATURAJA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Fitrika</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3838,62 +3838,62 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>3905000</t>
+          <t>4002352</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>3905000</v>
+        <v>4002352</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>95</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>098963 PENGADILAN NEGERI BATURAJA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Fitrika</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3908,62 +3908,62 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>3897000</t>
+          <t>3960692</t>
         </is>
       </c>
       <c r="K50" t="n">
-        <v>3897000</v>
+        <v>3960692</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>098963 PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>5534790302046000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>DEKI ZULKARNAIN,S.ST</t>
+          <t>Fitrika</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>24000000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3978,62 +3978,62 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>3822990</t>
+          <t>3905000</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>3822990</v>
+        <v>3905000</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>5534790302046000</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>098963 PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790302046000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Gus Hendrawansa,SE</t>
+          <t>Fitrika</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>24000000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4048,62 +4048,62 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>3668591</t>
+          <t>3897000</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>3668591</v>
+        <v>3897000</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790302046000</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>77</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790302233800</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>ARAFATUZ ZAKKY GULTOM</t>
+          <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4113,67 +4113,67 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>3557090</t>
+          <t>3822990</t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>3557090</v>
+        <v>3822990</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790302233800</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>109</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>098963 PENGADILAN NEGERI BATURAJA</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Fitrika</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4188,57 +4188,57 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>3500000</t>
+          <t>3668591</t>
         </is>
       </c>
       <c r="K54" t="n">
-        <v>3500000</v>
+        <v>3668591</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>55</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6189500100265200</t>
+          <t>4340750300129200</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BUDIRIYANTO</t>
+          <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4248,47 +4248,47 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK MANDIRI</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>3440000</t>
+          <t>3557090</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>3440000</v>
+        <v>3557090</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>6189500100265200</t>
+          <t>4340750300129200</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -4298,22 +4298,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>098963 PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790302046000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>Fitrika</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>24000000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -4328,16 +4328,16 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>3348270</t>
+          <t>3500000</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>3348270</v>
+        <v>3500000</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -4346,44 +4346,44 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790302046000</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>126</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>137 KEMENTERIAN IMIGRASI DAN PEMASYARAKATAN</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>692339 RUTAN KELAS II B BATURAJA</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790303637900</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>ANDIKA SAPUTRA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>6800000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -4398,57 +4398,57 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>3240885</t>
+          <t>3465000</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>3240885</v>
+        <v>3465000</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>137</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>692339</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790303637900</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>84</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>6189500100265200</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ARAFATUZ ZAKKY GULTOM</t>
+          <t>BUDIRIYANTO</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -4458,77 +4458,77 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>3211146</t>
+          <t>3440000</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>3211146</v>
+        <v>3440000</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>6189500100265200</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>RIVAL ABDUL JABAR</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -4543,32 +4543,32 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>3205417</t>
+          <t>3348270</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>3205417</v>
+        <v>3348270</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4608,16 +4608,16 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>3017400</t>
+          <t>3240885</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>3017400</v>
+        <v>3240885</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4638,32 +4638,32 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>47</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>025 KEMENTERIAN AGAMA</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>553099 MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6189500100334900</t>
+          <t>4340750300129200</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>KOMARUDIN</t>
+          <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4673,62 +4673,62 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK MANDIRI</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>2911500</t>
+          <t>3211146</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>2911500</v>
+        <v>3211146</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>553099</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>6189500100334900</t>
+          <t>4340750300129200</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>99</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6189500100029900</t>
+          <t>5534790302349000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>INDRA</t>
+          <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -4748,62 +4748,62 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>2793700</t>
+          <t>3205417</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>2793700</v>
+        <v>3205417</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>6189500100029900</t>
+          <t>5534790302349000</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>120</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>024 KEMENTERIAN KESEHATAN</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>690801 LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>5534790303628700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ANGGRAINI</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>22000000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -4818,62 +4818,62 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>2717905</t>
+          <t>3185388</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>2717905</v>
+        <v>3185388</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>5534790303628700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>82</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>098963 PENGADILAN NEGERI BATURAJA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Fitrika</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>24000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4888,62 +4888,62 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>2650000</t>
+          <t>3017400</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>2650000</v>
+        <v>3017400</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>098963</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>5534790302046000</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>68</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>025 KEMENTERIAN AGAMA</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>553099 MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>6189500100334900</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>KOMARUDIN</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4958,62 +4958,62 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>2625670</t>
+          <t>2911500</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>2625670</v>
+        <v>2911500</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>025</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>553099</t>
         </is>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>6189500100334900</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>137 KEMENTERIAN IMIGRASI DAN PEMASYARAKATAN</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>692334 LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790303575100</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>HERO SULISTIYONO</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>40000000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5028,62 +5028,62 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>2316253</t>
+          <t>2806886</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>2316253</v>
+        <v>2806886</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>137</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790303575100</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>6189500100029900</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Gus Hendrawansa,SE</t>
+          <t>INDRA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5098,62 +5098,62 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>2289406</t>
+          <t>2793700</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>2289406</v>
+        <v>2793700</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>6189500100029900</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>66</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>024 KEMENTERIAN KESEHATAN</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>690801 LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790303628700</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Gus Hendrawansa,SE</t>
+          <t>ANGGRAINI</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>22000000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -5168,62 +5168,62 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>2283305</t>
+          <t>2717905</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>2283305</v>
+        <v>2717905</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>024</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790303628700</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>098963 PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790302046000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Gus Hendrawansa,SE</t>
+          <t>Fitrika</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>24000000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -5238,57 +5238,57 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>2257445</t>
+          <t>2650000</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>2257445</v>
+        <v>2650000</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>098963</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>5534790301193100</t>
+          <t>5534790302046000</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ARAFATUZ ZAKKY GULTOM</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -5303,67 +5303,67 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>2241786</t>
+          <t>2625670</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>2241786</v>
+        <v>2625670</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>4340750300129200</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -5378,62 +5378,62 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>2115768</t>
+          <t>2316253</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>2115768</v>
+        <v>2316253</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>107</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Uswar M Al Ghifari AP</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -5448,37 +5448,37 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>2111897</t>
+          <t>2289406</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>2111897</v>
+        <v>2289406</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>5534790301979700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>111</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>5534790301925400</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>IRTO SUNARDI</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -5518,16 +5518,16 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>2065000</t>
+          <t>2283305</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>2065000</v>
+        <v>2283305</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -5541,39 +5541,39 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>5534790301925400</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>137 KEMENTERIAN IMIGRASI DAN PEMASYARAKATAN</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>692334 LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790303575100</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>HERO SULISTIYONO</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>40000000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -5588,37 +5588,37 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>1933320</t>
+          <t>2260122</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>1933320</v>
+        <v>2260122</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>137</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>5534790303575100</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>115</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -5628,22 +5628,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>4365830950004700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>INDAH MUHSINAH</t>
+          <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>1900000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -5653,21 +5653,21 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>BANK NEGARA INDONESIA</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>1904397</t>
+          <t>2257445</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>1904397</v>
+        <v>2257445</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -5676,44 +5676,44 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>4365830950004700</t>
+          <t>5534790301193100</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>53</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>024 KEMENTERIAN KESEHATAN</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>690801 LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>5534790303628700</t>
+          <t>4340750300129200</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ANGGRAINI</t>
+          <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>22000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -5723,42 +5723,42 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK MANDIRI</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>1865319</t>
+          <t>2241786</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>1865319</v>
+        <v>2241786</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>690801</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>5534790303628700</t>
+          <t>4340750300129200</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>75</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -5798,16 +5798,16 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>1826019</t>
+          <t>2115768</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1826019</v>
+        <v>2115768</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>76</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -5838,22 +5838,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>5534790303539900</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>YUSRA YURIZA</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>14000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5868,16 +5868,16 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>1722276</t>
+          <t>2111897</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>1722276</v>
+        <v>2111897</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -5886,19 +5886,19 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>5534790303539900</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -5908,46 +5908,46 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>4365830950004700</t>
+          <t>5534790301925400</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>INDAH MUHSINAH</t>
+          <t>IRTO SUNARDI</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>1900000</t>
+          <t>16000000</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>BANK NEGARA INDONESIA</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>1720000</t>
+          <t>2065000</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>1720000</v>
+        <v>2065000</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -5956,39 +5956,39 @@
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>656560</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>4365830950004700</t>
+          <t>5534790301925400</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>6189500100105300</t>
+          <t>5534790301986200</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Mukti Riadi</t>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -6008,62 +6008,62 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>1650000</t>
+          <t>1933320</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>1650000</v>
+        <v>1933320</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>6189500100105300</t>
+          <t>5534790301986200</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>4365830950004700</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DEKI ZULKARNAIN,S.ST</t>
+          <t>INDAH MUHSINAH</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>1900000</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -6073,67 +6073,67 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK NEGARA INDONESIA</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>1517640</t>
+          <t>1904397</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>1517640</v>
+        <v>1904397</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>4365830950004700</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>65</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>012 KEMENTERIAN PERTAHANAN</t>
+          <t>024 KEMENTERIAN KESEHATAN</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>685001 PUSLATPUR KODIKLATAD</t>
+          <t>690801 LOKA LABORATORIUM KESEHATAN MASYARAKAT BATURAJA</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>5534790303657500</t>
+          <t>5534790303628700</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>M. REDO</t>
+          <t>ANGGRAINI</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>3000000</t>
+          <t>22000000</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -6153,57 +6153,57 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>1500000</t>
+          <t>1865319</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>1500000</v>
+        <v>1865319</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>012</t>
+          <t>024</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>685001</t>
+          <t>690801</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>5534790303657500</t>
+          <t>5534790303628700</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>72</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>6189500100029900</t>
+          <t>5534790301979700</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>INDRA</t>
+          <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -6218,132 +6218,132 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>1496500</t>
+          <t>1826019</t>
         </is>
       </c>
       <c r="K83" t="n">
-        <v>1496500</v>
+        <v>1826019</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>6189500100029900</t>
+          <t>5534790301979700</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>93</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>4895940300052500</t>
+          <t>5534790303539900</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TRI WIDIYONO</t>
+          <t>YUSRA YURIZA</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>70000000</t>
+          <t>14000000</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>1489998</t>
+          <t>1722276</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>1489998</v>
+        <v>1722276</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>4895940300052500</t>
+          <t>5534790303539900</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>110</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>5534790303539900</t>
+          <t>4365830950004700</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>YUSRA YURIZA</t>
+          <t>INDAH MUHSINAH</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>14000000</t>
+          <t>1900000</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -6353,42 +6353,42 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK NEGARA INDONESIA</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>1392000</t>
+          <t>1720000</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>1392000</v>
+        <v>1720000</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>656574</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>5534790303539900</t>
+          <t>4365830950004700</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>70</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -6403,22 +6403,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>6189500100105300</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>DEKI ZULKARNAIN,S.ST</t>
+          <t>Mukti Riadi</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -6428,16 +6428,16 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-01</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>1290545</t>
+          <t>1650000</t>
         </is>
       </c>
       <c r="K86" t="n">
-        <v>1290545</v>
+        <v>1650000</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -6451,39 +6451,39 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>6189500100105300</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>81</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>402267 PENGADILAN AGAMA BATURAJA</t>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>5534790302077700</t>
+          <t>5534790302233800</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TEDDY NUANSYAH</t>
+          <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -6498,62 +6498,62 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>1168200</t>
+          <t>1517640</t>
         </is>
       </c>
       <c r="K87" t="n">
-        <v>1168200</v>
+        <v>1517640</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>402267</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>5534790302077700</t>
+          <t>5534790302233800</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>45</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+          <t>012 KEMENTERIAN PERTAHANAN</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>685001 PUSLATPUR KODIKLATAD</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>5534790303636200</t>
+          <t>5534790303657500</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>TUWAH KELANA</t>
+          <t>M. REDO</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>3000000</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -6568,62 +6568,62 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>1160190</t>
+          <t>1500000</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>1160190</v>
+        <v>1500000</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>012</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>685001</t>
         </is>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>5534790303636200</t>
+          <t>5534790303657500</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>6189500100029900</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>DEKI ZULKARNAIN,S.ST</t>
+          <t>INDRA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -6638,107 +6638,107 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-04</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>1074070</t>
+          <t>1496500</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>1074070</v>
+        <v>1496500</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>401944</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>6189500100029900</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>46</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>015 KEMENTERIAN KEUANGAN</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>402267 PENGADILAN AGAMA BATURAJA</t>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>5534790302077700</t>
+          <t>4895940300052500</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TEDDY NUANSYAH</t>
+          <t>TRI WIDIYONO</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>70000000</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>BANK RAKYAT INDONESIA</t>
+          <t>BANK MANDIRI</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>1068054</t>
+          <t>1489998</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>1068054</v>
+        <v>1489998</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>015</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>402267</t>
+          <t>527975</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>5534790302077700</t>
+          <t>4895940300052500</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>89</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6748,27 +6748,27 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790303539900</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>RIVAL ABDUL JABAR</t>
+          <t>YUSRA YURIZA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>14000000</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -6778,16 +6778,16 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>1042470</t>
+          <t>1392000</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>1042470</v>
+        <v>1392000</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -6796,44 +6796,44 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>668529</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790303539900</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>137 KEMENTERIAN IMIGRASI DAN PEMASYARAKATAN</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+          <t>692339 RUTAN KELAS II B BATURAJA</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>5534790303637900</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>DEKI ZULKARNAIN,S.ST</t>
+          <t>ANDIKA SAPUTRA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>18000000</t>
+          <t>6800000</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6848,62 +6848,62 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>905070</t>
+          <t>1386000</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>905070</v>
+        <v>1386000</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>137</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>428258</t>
+          <t>692339</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>5534790302233800</t>
+          <t>5534790303637900</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>78</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>6189500100029900</t>
+          <t>5534790302233800</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>INDRA</t>
+          <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6918,62 +6918,62 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>885100</t>
+          <t>1290545</t>
         </is>
       </c>
       <c r="K93" t="n">
-        <v>885100</v>
+        <v>1290545</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>401944</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>6189500100029900</t>
+          <t>5534790302233800</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>402267 PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>5534790303636200</t>
+          <t>5534790302077700</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TUWAH KELANA</t>
+          <t>TEDDY NUANSYAH</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>10000000</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6988,62 +6988,62 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>770670</t>
+          <t>1168200</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>770670</v>
+        <v>1168200</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>402267</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>5534790303636200</t>
+          <t>5534790302077700</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>5534790303539900</t>
+          <t>5534790303636200</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>YUSRA YURIZA</t>
+          <t>TUWAH KELANA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>14000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -7058,67 +7058,67 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>689000</t>
+          <t>1160190</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>689000</v>
+        <v>1160190</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>006</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>668529</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>5534790303539900</t>
+          <t>5534790303636200</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>127</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
+          <t>137 KEMENTERIAN IMIGRASI DAN PEMASYARAKATAN</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>692334 LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790303575100</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>RIVAL ABDUL JABAR</t>
+          <t>HERO SULISTIYONO</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>40000000</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -7128,62 +7128,62 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>673574</t>
+          <t>1082700</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>673574</v>
+        <v>1082700</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>054</t>
+          <t>137</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790303575100</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>122</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>137 KEMENTERIAN IMIGRASI DAN PEMASYARAKATAN</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+          <t>692334 LAPAS KELAS II B MUARA DUA</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>4365830950004700</t>
+          <t>5534790303575100</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>INDAH MUHSINAH</t>
+          <t>HERO SULISTIYONO</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>1900000</t>
+          <t>40000000</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -7193,42 +7193,42 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>BANK NEGARA INDONESIA</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>640133</t>
+          <t>1082700</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>640133</v>
+        <v>1082700</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>137</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>656574</t>
+          <t>692334</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>4365830950004700</t>
+          <t>5534790303575100</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>100</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -7238,27 +7238,27 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790302233800</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>RIVAL ABDUL JABAR</t>
+          <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Perjalanan Dinas</t>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -7268,16 +7268,16 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>616000</t>
+          <t>1074070</t>
         </is>
       </c>
       <c r="K98" t="n">
-        <v>616000</v>
+        <v>1074070</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -7286,39 +7286,39 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>667215</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>5534790302349000</t>
+          <t>5534790302233800</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>025 KEMENTERIAN AGAMA</t>
+          <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>424245 MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+          <t>402267 PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>6189500100182600</t>
+          <t>5534790302077700</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SELPI TERESIA WIDAYANTI, S.PD</t>
+          <t>TEDDY NUANSYAH</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -7338,62 +7338,62 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>568000</t>
+          <t>1068054</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>568000</v>
+        <v>1068054</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>005</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>424245</t>
+          <t>402267</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>6189500100182600</t>
+          <t>5534790302077700</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>73</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>5534790301925400</t>
+          <t>5534790302349000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>IRTO SUNARDI</t>
+          <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>16000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -7408,62 +7408,62 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-02</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>470000</t>
+          <t>1042470</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>470000</v>
+        <v>1042470</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>076</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>656560</t>
+          <t>667215</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>5534790301925400</t>
+          <t>5534790302349000</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>74</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
+          <t>054 BADAN PUSAT STATISTIK</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>6032987100028800</t>
+          <t>5534790302233800</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>ARAFATUZ ZAKKY GULTOM</t>
+          <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>18000000</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -7473,42 +7473,42 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>BANK MANDIRI</t>
+          <t>BANK RAKYAT INDONESIA</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>259000</t>
+          <t>905070</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>259000</v>
+        <v>905070</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>054</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>527975</t>
+          <t>428258</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>6032987100028800</t>
+          <t>5534790302233800</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -7523,17 +7523,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>6189500100029900</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+          <t>INDRA</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -7548,16 +7548,16 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-03</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>212017</t>
+          <t>885100</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>212017</v>
+        <v>885100</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -7571,44 +7571,44 @@
       </c>
       <c r="N102" t="inlineStr">
         <is>
-          <t>5534790301986200</t>
+          <t>6189500100029900</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>117</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+          <t>656553 KPU  KABUPATEN OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>5534790303636200</t>
+          <t>5534790300165600</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TUWAH KELANA</t>
+          <t>Dewi Mustika Sari, S.I.Kom, M.IP</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>6000000</t>
+          <t>50000000</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
+          <t>Perjalanan Dinas</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -7618,62 +7618,62 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>160005</t>
+          <t>775000</t>
         </is>
       </c>
       <c r="K103" t="n">
-        <v>160005</v>
+        <v>775000</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>006</t>
+          <t>076</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>007130</t>
+          <t>656553</t>
         </is>
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>5534790303636200</t>
+          <t>5534790300165600</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>005 MAHKAMAH AGUNG</t>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>402267 PENGADILAN AGAMA BATURAJA</t>
+          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>5534790302077700</t>
+          <t>5534790303636200</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TEDDY NUANSYAH</t>
+          <t>TUWAH KELANA</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>6000000</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -7693,93 +7693,933 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>770670</t>
         </is>
       </c>
       <c r="K104" t="n">
-        <v>10000</v>
+        <v>770670</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>005</t>
+          <t>006</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>402267</t>
+          <t>007130</t>
         </is>
       </c>
       <c r="N104" t="inlineStr">
         <is>
-          <t>5534790302077700</t>
+          <t>5534790303636200</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>5534790303539900</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>YUSRA YURIZA</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>14000000</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>689000</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>689000</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>668529</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>5534790303539900</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>RIVAL ABDUL JABAR</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Perjalanan Dinas</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>673574</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>673574</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>INDAH MUHSINAH</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1900000</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>BANK NEGARA INDONESIA</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>640133</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>640133</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>656574</t>
+        </is>
+      </c>
+      <c r="N107" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>RIVAL ABDUL JABAR</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Perjalanan Dinas</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>616000</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>616000</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>025 KEMENTERIAN AGAMA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>424245 MADRASAH ALIYAH NEGERI 1 OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>6189500100182600</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>SELPI TERESIA WIDAYANTI, S.PD</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>568000</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>568000</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>424245</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>6189500100182600</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5534790301925400</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>IRTO SUNARDI</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Perjalanan Dinas</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>2025-09</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>470000</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>470000</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
+      <c r="N110" t="inlineStr">
+        <is>
+          <t>5534790301925400</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>INDAH MUHSINAH</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1900000</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>BANK NEGARA INDONESIA</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>401000</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>401000</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>656574</t>
+        </is>
+      </c>
+      <c r="N111" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>6032987100028800</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>ARAFATUZ ZAKKY GULTOM</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>BANK MANDIRI</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>2025-12</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>259000</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>259000</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr">
+        <is>
+          <t>6032987100028800</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>MUHAMMAD AJI TAUFAN, S.H.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>212017</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>212017</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5534790303636200</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>TUWAH KELANA</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>2025-11</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>160005</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>160005</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>5534790303636200</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>INDAH MUHSINAH</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1900000</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>BANK NEGARA INDONESIA</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>128530</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>128530</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>656574</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
           <t>36</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>005 MAHKAMAH AGUNG</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>402267 PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>5534790302077700</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>TEDDY NUANSYAH</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>10000000</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Belanja Barang Operasional atau Belanja Modal</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>BANK RAKYAT INDONESIA</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="K105" t="n">
+      <c r="K116" t="n">
         <v>10000</v>
       </c>
-      <c r="L105" t="inlineStr">
+      <c r="L116" t="inlineStr">
         <is>
           <t>005</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M116" t="inlineStr">
         <is>
           <t>402267</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>5534790302077700</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>402267 PENGADILAN AGAMA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>5534790302077700</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>TEDDY NUANSYAH</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Belanja Barang Operasional atau Belanja Modal</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>BANK RAKYAT INDONESIA</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>2025-10</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>402267</t>
+        </is>
+      </c>
+      <c r="N117" t="inlineStr">
         <is>
           <t>5534790302077700</t>
         </is>

--- a/data_kkp/KKP_MASTER.xlsx
+++ b/data_kkp/KKP_MASTER.xlsx
@@ -884,10 +884,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
+      <c r="A8" t="n">
+        <v>40</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -899,20 +897,16 @@
           <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>4365830050144800</t>
-        </is>
+      <c r="D8" t="n">
+        <v>4365830050144800</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">SARPINDI, SH.  </t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
+      <c r="F8" t="n">
+        <v>40000000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -929,54 +923,52 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>26763409</t>
-        </is>
+      <c r="J8" t="n">
+        <v>26763409</v>
       </c>
       <c r="K8" t="n">
         <v>26763409</v>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>007208</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="L8" t="n">
+        <v>6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7208</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4365830050144800</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>4365830050144800</t>
         </is>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>40</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4365830050144800</v>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">SARPINDI, SH.  </t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>40000000</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -993,20 +985,28 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J9" t="n">
-        <v>26763409</v>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>26763409</t>
+        </is>
       </c>
       <c r="K9" t="n">
         <v>26763409</v>
       </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>7208</v>
-      </c>
-      <c r="N9" t="n">
-        <v>4365830050144800</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>007208</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>4365830050144800</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -1514,10 +1514,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
+      <c r="A18" t="n">
+        <v>69</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1529,20 +1527,16 @@
           <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
+      <c r="D18" t="n">
+        <v>5534790302233800</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
+      <c r="F18" t="n">
+        <v>18000000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1559,54 +1553,52 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>17770000</t>
-        </is>
+      <c r="J18" t="n">
+        <v>17770000</v>
       </c>
       <c r="K18" t="n">
         <v>17770000</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="L18" t="n">
+        <v>54</v>
+      </c>
+      <c r="M18" t="n">
+        <v>428258</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5534790302233800</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>5534790302233800</t>
         </is>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>69</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>5534790302233800</v>
-      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>18000000</v>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1623,52 +1615,54 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="J19" t="n">
-        <v>17770000</v>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17770000</t>
+        </is>
       </c>
       <c r="K19" t="n">
         <v>17770000</v>
       </c>
-      <c r="L19" t="n">
-        <v>54</v>
-      </c>
-      <c r="M19" t="n">
-        <v>428258</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>91</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>5534790302233800</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
-      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
+      <c r="F20" t="n">
+        <v>18000000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1685,54 +1679,52 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>17150045</t>
-        </is>
+      <c r="J20" t="n">
+        <v>17150045</v>
       </c>
       <c r="K20" t="n">
         <v>17150045</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="L20" t="n">
+        <v>54</v>
+      </c>
+      <c r="M20" t="n">
+        <v>428258</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5534790302233800</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>5534790302233800</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>91</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>5534790302233800</v>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>18000000</v>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1749,20 +1741,28 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J21" t="n">
-        <v>17150045</v>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>17150045</t>
+        </is>
       </c>
       <c r="K21" t="n">
         <v>17150045</v>
       </c>
-      <c r="L21" t="n">
-        <v>54</v>
-      </c>
-      <c r="M21" t="n">
-        <v>428258</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5534790302233800</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2018,8 +2018,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>88</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -2031,16 +2033,20 @@
           <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>5534790302233800</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>18000000</v>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2057,52 +2063,54 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J26" t="n">
-        <v>15951110</v>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>15951110</t>
+        </is>
       </c>
       <c r="K26" t="n">
         <v>15951110</v>
       </c>
-      <c r="L26" t="n">
-        <v>54</v>
-      </c>
-      <c r="M26" t="n">
-        <v>428258</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>88</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>5534790302233800</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
+      <c r="F27" t="n">
+        <v>18000000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2119,35 +2127,25 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>15951110</t>
-        </is>
+      <c r="J27" t="n">
+        <v>15951110</v>
       </c>
       <c r="K27" t="n">
         <v>15951110</v>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
+      <c r="L27" t="n">
+        <v>54</v>
+      </c>
+      <c r="M27" t="n">
+        <v>428258</v>
+      </c>
+      <c r="N27" t="n">
+        <v>5534790302233800</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="A28" t="n">
+        <v>34</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2159,20 +2157,16 @@
           <t>402267 PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>5534790302077700</t>
-        </is>
+      <c r="D28" t="n">
+        <v>5534790302077700</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>TEDDY NUANSYAH</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F28" t="n">
+        <v>10000000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2189,54 +2183,52 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>14785443</t>
-        </is>
+      <c r="J28" t="n">
+        <v>14785443</v>
       </c>
       <c r="K28" t="n">
         <v>14785443</v>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>402267</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="L28" t="n">
+        <v>5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>402267</v>
+      </c>
+      <c r="N28" t="n">
+        <v>5534790302077700</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>402267 PENGADILAN AGAMA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>5534790302077700</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>34</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>402267 PENGADILAN AGAMA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>5534790302077700</v>
-      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>TEDDY NUANSYAH</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>10000000</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2253,20 +2245,28 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J29" t="n">
-        <v>14785443</v>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>14785443</t>
+        </is>
       </c>
       <c r="K29" t="n">
         <v>14785443</v>
       </c>
-      <c r="L29" t="n">
-        <v>5</v>
-      </c>
-      <c r="M29" t="n">
-        <v>402267</v>
-      </c>
-      <c r="N29" t="n">
-        <v>5534790302077700</v>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>402267</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>5534790302077700</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3026,8 +3026,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>52</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3039,16 +3041,20 @@
           <t>410574 KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>5534790303561000</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5534790303561000</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>JOICE SANDRA</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>40000000</v>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3065,52 +3071,54 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J42" t="n">
-        <v>9670989</v>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>9670989</t>
+        </is>
       </c>
       <c r="K42" t="n">
         <v>9670989</v>
       </c>
-      <c r="L42" t="n">
-        <v>15</v>
-      </c>
-      <c r="M42" t="n">
-        <v>410574</v>
-      </c>
-      <c r="N42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>410574</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>5534790303561000</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>410574 KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>5534790303561000</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>410574 KANTOR PELAYANAN PAJAK PRATAMA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>5534790303561000</t>
-        </is>
-      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>JOICE SANDRA</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
+      <c r="F43" t="n">
+        <v>40000000</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -3127,35 +3135,25 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>9670989</t>
-        </is>
+      <c r="J43" t="n">
+        <v>9670989</v>
       </c>
       <c r="K43" t="n">
         <v>9670989</v>
       </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>410574</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>5534790303561000</t>
-        </is>
+      <c r="L43" t="n">
+        <v>15</v>
+      </c>
+      <c r="M43" t="n">
+        <v>410574</v>
+      </c>
+      <c r="N43" t="n">
+        <v>5534790303561000</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
+      <c r="A44" t="n">
+        <v>105</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -3167,20 +3165,16 @@
           <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5534790301994400</t>
-        </is>
+      <c r="D44" t="n">
+        <v>5534790301994400</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Efriyanto Tambunan, M.M.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
+      <c r="F44" t="n">
+        <v>40000000</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -3197,54 +3191,52 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>9286864</t>
-        </is>
+      <c r="J44" t="n">
+        <v>9286864</v>
       </c>
       <c r="K44" t="n">
         <v>9286864</v>
       </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>066</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>111079</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="L44" t="n">
+        <v>66</v>
+      </c>
+      <c r="M44" t="n">
+        <v>111079</v>
+      </c>
+      <c r="N44" t="n">
+        <v>5534790301994400</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>066 BADAN NARKOTIKA NASIONAL (BNN)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>5534790301994400</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>105</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>066 BADAN NARKOTIKA NASIONAL (BNN)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>5534790301994400</v>
-      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Efriyanto Tambunan, M.M.</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>40000000</v>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -3261,27 +3253,33 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J45" t="n">
-        <v>9286864</v>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>9286864</t>
+        </is>
       </c>
       <c r="K45" t="n">
         <v>9286864</v>
       </c>
-      <c r="L45" t="n">
-        <v>66</v>
-      </c>
-      <c r="M45" t="n">
-        <v>111079</v>
-      </c>
-      <c r="N45" t="n">
-        <v>5534790301994400</v>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>111079</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>5534790301994400</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
+      <c r="A46" t="n">
+        <v>37</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -3293,20 +3291,16 @@
           <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>4365830050144800</t>
-        </is>
+      <c r="D46" t="n">
+        <v>4365830050144800</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">SARPINDI, SH.  </t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
+      <c r="F46" t="n">
+        <v>40000000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -3323,54 +3317,52 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>9180565</t>
-        </is>
+      <c r="J46" t="n">
+        <v>9180565</v>
       </c>
       <c r="K46" t="n">
         <v>9180565</v>
       </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>007208</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="L46" t="n">
+        <v>6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>7208</v>
+      </c>
+      <c r="N46" t="n">
+        <v>4365830050144800</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>4365830050144800</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>37</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>4365830050144800</v>
-      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">SARPINDI, SH.  </t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>40000000</v>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -3387,27 +3379,33 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J47" t="n">
-        <v>9180565</v>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>9180565</t>
+        </is>
       </c>
       <c r="K47" t="n">
         <v>9180565</v>
       </c>
-      <c r="L47" t="n">
-        <v>6</v>
-      </c>
-      <c r="M47" t="n">
-        <v>7208</v>
-      </c>
-      <c r="N47" t="n">
-        <v>4365830050144800</v>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>007208</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>4365830050144800</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
+      <c r="A48" t="n">
+        <v>35</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -3419,20 +3417,16 @@
           <t>098963 PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>5534790302046000</t>
-        </is>
+      <c r="D48" t="n">
+        <v>5534790302046000</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>Fitrika</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>24000000</t>
-        </is>
+      <c r="F48" t="n">
+        <v>24000000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -3449,54 +3443,52 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>9151500</t>
-        </is>
+      <c r="J48" t="n">
+        <v>9151500</v>
       </c>
       <c r="K48" t="n">
         <v>9151500</v>
       </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>098963</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="L48" t="n">
+        <v>5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>98963</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5534790302046000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>098963 PENGADILAN NEGERI BATURAJA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>5534790302046000</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>35</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>098963 PENGADILAN NEGERI BATURAJA</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>5534790302046000</v>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>Fitrika</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>24000000</v>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>24000000</t>
+        </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -3513,20 +3505,28 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J49" t="n">
-        <v>9151500</v>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>9151500</t>
+        </is>
       </c>
       <c r="K49" t="n">
         <v>9151500</v>
       </c>
-      <c r="L49" t="n">
-        <v>5</v>
-      </c>
-      <c r="M49" t="n">
-        <v>98963</v>
-      </c>
-      <c r="N49" t="n">
-        <v>5534790302046000</v>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>098963</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>5534790302046000</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -3782,8 +3782,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>38</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -3795,16 +3797,20 @@
           <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>4365830050144800</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4365830050144800</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">SARPINDI, SH.  </t>
         </is>
       </c>
-      <c r="F54" t="n">
-        <v>40000000</v>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -3821,52 +3827,54 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="J54" t="n">
-        <v>8752087</v>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>8752087</t>
+        </is>
       </c>
       <c r="K54" t="n">
         <v>8752087</v>
       </c>
-      <c r="L54" t="n">
-        <v>6</v>
-      </c>
-      <c r="M54" t="n">
-        <v>7208</v>
-      </c>
-      <c r="N54" t="n">
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>007208</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>4365830050144800</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>4365830050144800</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>007208 KEJAKSAAN NEGERI OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>4365830050144800</t>
-        </is>
-      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">SARPINDI, SH.  </t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
+      <c r="F55" t="n">
+        <v>40000000</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -3883,28 +3891,20 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>8752087</t>
-        </is>
+      <c r="J55" t="n">
+        <v>8752087</v>
       </c>
       <c r="K55" t="n">
         <v>8752087</v>
       </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>007208</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>4365830050144800</t>
-        </is>
+      <c r="L55" t="n">
+        <v>6</v>
+      </c>
+      <c r="M55" t="n">
+        <v>7208</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4365830050144800</v>
       </c>
     </row>
     <row r="56">
@@ -4286,8 +4286,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>51</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -4299,16 +4301,20 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>4340750300129200</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F62" t="n">
-        <v>10000000</v>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -4325,52 +4331,54 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J62" t="n">
-        <v>7744485</v>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>7744485</t>
+        </is>
       </c>
       <c r="K62" t="n">
         <v>7744485</v>
       </c>
-      <c r="L62" t="n">
-        <v>15</v>
-      </c>
-      <c r="M62" t="n">
-        <v>527975</v>
-      </c>
-      <c r="N62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>51</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>4340750300129200</v>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
-      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F63" t="n">
+        <v>10000000</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -4387,28 +4395,20 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>7744485</t>
-        </is>
+      <c r="J63" t="n">
+        <v>7744485</v>
       </c>
       <c r="K63" t="n">
         <v>7744485</v>
       </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>527975</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="L63" t="n">
+        <v>15</v>
+      </c>
+      <c r="M63" t="n">
+        <v>527975</v>
+      </c>
+      <c r="N63" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
     <row r="64">
@@ -4594,8 +4594,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>32</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -4607,16 +4609,20 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>5534790301986200</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>10000000</v>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -4633,52 +4639,54 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J67" t="n">
-        <v>6652559</v>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>6652559</t>
+        </is>
       </c>
       <c r="K67" t="n">
         <v>6652559</v>
       </c>
-      <c r="L67" t="n">
-        <v>5</v>
-      </c>
-      <c r="M67" t="n">
-        <v>401944</v>
-      </c>
-      <c r="N67" t="n">
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>32</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>5534790301986200</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
-      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F68" t="n">
+        <v>10000000</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -4695,28 +4703,20 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>6652559</t>
-        </is>
+      <c r="J68" t="n">
+        <v>6652559</v>
       </c>
       <c r="K68" t="n">
         <v>6652559</v>
       </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="L68" t="n">
+        <v>5</v>
+      </c>
+      <c r="M68" t="n">
+        <v>401944</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="69">
@@ -4972,8 +4972,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>49</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -4985,16 +4987,20 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>4340750300129200</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F73" t="n">
-        <v>10000000</v>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -5011,52 +5017,54 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J73" t="n">
-        <v>6077473</v>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>6077473</t>
+        </is>
       </c>
       <c r="K73" t="n">
         <v>6077473</v>
       </c>
-      <c r="L73" t="n">
-        <v>15</v>
-      </c>
-      <c r="M73" t="n">
-        <v>527975</v>
-      </c>
-      <c r="N73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>49</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>4340750300129200</v>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
-      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F74" t="n">
+        <v>10000000</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -5073,28 +5081,20 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>6077473</t>
-        </is>
+      <c r="J74" t="n">
+        <v>6077473</v>
       </c>
       <c r="K74" t="n">
         <v>6077473</v>
       </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>527975</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="L74" t="n">
+        <v>15</v>
+      </c>
+      <c r="M74" t="n">
+        <v>527975</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
     <row r="75">
@@ -5224,10 +5224,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
+      <c r="A77" t="n">
+        <v>48</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -5239,20 +5237,16 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="D77" t="n">
+        <v>4340750300129200</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F77" t="n">
+        <v>10000000</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -5269,54 +5263,52 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>5902139</t>
-        </is>
+      <c r="J77" t="n">
+        <v>5902139</v>
       </c>
       <c r="K77" t="n">
         <v>5902139</v>
       </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>527975</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
+      <c r="L77" t="n">
+        <v>15</v>
+      </c>
+      <c r="M77" t="n">
+        <v>527975</v>
+      </c>
+      <c r="N77" t="n">
+        <v>4340750300129200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>4340750300129200</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n">
-        <v>48</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>4340750300129200</v>
-      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F78" t="n">
-        <v>10000000</v>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -5333,25 +5325,35 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="J78" t="n">
-        <v>5902139</v>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>5902139</t>
+        </is>
       </c>
       <c r="K78" t="n">
         <v>5902139</v>
       </c>
-      <c r="L78" t="n">
-        <v>15</v>
-      </c>
-      <c r="M78" t="n">
-        <v>527975</v>
-      </c>
-      <c r="N78" t="n">
-        <v>4340750300129200</v>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>26</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -5363,16 +5365,20 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>5534790301986200</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F79" t="n">
-        <v>10000000</v>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -5389,52 +5395,54 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J79" t="n">
-        <v>5818770</v>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>5818770</t>
+        </is>
       </c>
       <c r="K79" t="n">
         <v>5818770</v>
       </c>
-      <c r="L79" t="n">
-        <v>5</v>
-      </c>
-      <c r="M79" t="n">
-        <v>401944</v>
-      </c>
-      <c r="N79" t="n">
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>26</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>5534790301986200</v>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
-      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F80" t="n">
+        <v>10000000</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -5451,28 +5459,20 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>5818770</t>
-        </is>
+      <c r="J80" t="n">
+        <v>5818770</v>
       </c>
       <c r="K80" t="n">
         <v>5818770</v>
       </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="L80" t="n">
+        <v>5</v>
+      </c>
+      <c r="M80" t="n">
+        <v>401944</v>
+      </c>
+      <c r="N80" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="81">
@@ -5602,10 +5602,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
+      <c r="A83" t="n">
+        <v>113</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -5617,20 +5615,16 @@
           <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>5534790301193100</t>
-        </is>
+      <c r="D83" t="n">
+        <v>5534790301193100</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
+      <c r="F83" t="n">
+        <v>16000000</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -5647,54 +5641,52 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>5489670</t>
-        </is>
+      <c r="J83" t="n">
+        <v>5489670</v>
       </c>
       <c r="K83" t="n">
         <v>5489670</v>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>656560</t>
-        </is>
-      </c>
-      <c r="N83" t="inlineStr">
+      <c r="L83" t="n">
+        <v>76</v>
+      </c>
+      <c r="M83" t="n">
+        <v>656560</v>
+      </c>
+      <c r="N83" t="n">
+        <v>5534790301193100</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>5534790301193100</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>113</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>5534790301193100</v>
-      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F84" t="n">
-        <v>16000000</v>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -5711,20 +5703,28 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J84" t="n">
-        <v>5489670</v>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>5489670</t>
+        </is>
       </c>
       <c r="K84" t="n">
         <v>5489670</v>
       </c>
-      <c r="L84" t="n">
-        <v>76</v>
-      </c>
-      <c r="M84" t="n">
-        <v>656560</v>
-      </c>
-      <c r="N84" t="n">
-        <v>5534790301193100</v>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>5534790301193100</t>
+        </is>
       </c>
     </row>
     <row r="85">
@@ -5980,10 +5980,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
+      <c r="A89" t="n">
+        <v>90</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -5995,20 +5993,16 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>5534790302349000</t>
-        </is>
+      <c r="D89" t="n">
+        <v>5534790302349000</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F89" t="n">
+        <v>6000000</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -6025,54 +6019,52 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>4242930</t>
-        </is>
+      <c r="J89" t="n">
+        <v>4242930</v>
       </c>
       <c r="K89" t="n">
         <v>4242930</v>
       </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
+      <c r="L89" t="n">
+        <v>54</v>
+      </c>
+      <c r="M89" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N89" t="n">
+        <v>5534790302349000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>5534790302349000</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n">
-        <v>90</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>5534790302349000</v>
-      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
-      <c r="F90" t="n">
-        <v>6000000</v>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -6089,20 +6081,28 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J90" t="n">
-        <v>4242930</v>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>4242930</t>
+        </is>
       </c>
       <c r="K90" t="n">
         <v>4242930</v>
       </c>
-      <c r="L90" t="n">
-        <v>54</v>
-      </c>
-      <c r="M90" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N90" t="n">
-        <v>5534790302349000</v>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -6162,10 +6162,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
+      <c r="A92" t="n">
+        <v>102</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -6177,20 +6175,16 @@
           <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>5534790301994400</t>
-        </is>
+      <c r="D92" t="n">
+        <v>5534790301994400</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Efriyanto Tambunan, M.M.</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>40000000</t>
-        </is>
+      <c r="F92" t="n">
+        <v>40000000</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -6207,54 +6201,52 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
-        <is>
-          <t>4043518</t>
-        </is>
+      <c r="J92" t="n">
+        <v>4043518</v>
       </c>
       <c r="K92" t="n">
         <v>4043518</v>
       </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>066</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>111079</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
+      <c r="L92" t="n">
+        <v>66</v>
+      </c>
+      <c r="M92" t="n">
+        <v>111079</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5534790301994400</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>066 BADAN NARKOTIKA NASIONAL (BNN)</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>5534790301994400</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n">
-        <v>102</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>066 BADAN NARKOTIKA NASIONAL (BNN)</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>111079 BADAN NARKOTIKA NASIONAL KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>5534790301994400</v>
-      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>Efriyanto Tambunan, M.M.</t>
         </is>
       </c>
-      <c r="F93" t="n">
-        <v>40000000</v>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>40000000</t>
+        </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -6271,20 +6263,28 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J93" t="n">
-        <v>4043518</v>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>4043518</t>
+        </is>
       </c>
       <c r="K93" t="n">
         <v>4043518</v>
       </c>
-      <c r="L93" t="n">
-        <v>66</v>
-      </c>
-      <c r="M93" t="n">
-        <v>111079</v>
-      </c>
-      <c r="N93" t="n">
-        <v>5534790301994400</v>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>111079</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5534790301994400</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -6414,10 +6414,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="A96" t="n">
+        <v>95</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -6429,20 +6427,16 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>5534790301979700</t>
-        </is>
+      <c r="D96" t="n">
+        <v>5534790301979700</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
+      <c r="F96" t="n">
+        <v>5000000</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -6459,54 +6453,52 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>3960692</t>
-        </is>
+      <c r="J96" t="n">
+        <v>3960692</v>
       </c>
       <c r="K96" t="n">
         <v>3960692</v>
       </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N96" t="inlineStr">
+      <c r="L96" t="n">
+        <v>54</v>
+      </c>
+      <c r="M96" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N96" t="n">
+        <v>5534790301979700</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>5534790301979700</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>5534790301979700</v>
-      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F97" t="n">
-        <v>5000000</v>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -6523,20 +6515,28 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J97" t="n">
-        <v>3960692</v>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>3960692</t>
+        </is>
       </c>
       <c r="K97" t="n">
         <v>3960692</v>
       </c>
-      <c r="L97" t="n">
-        <v>54</v>
-      </c>
-      <c r="M97" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N97" t="n">
-        <v>5534790301979700</v>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>5534790301979700</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -6918,10 +6918,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>109</t>
-        </is>
+      <c r="A104" t="n">
+        <v>109</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -6933,20 +6931,16 @@
           <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>5534790301193100</t>
-        </is>
+      <c r="D104" t="n">
+        <v>5534790301193100</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
+      <c r="F104" t="n">
+        <v>16000000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -6963,54 +6957,52 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>3668591</t>
-        </is>
+      <c r="J104" t="n">
+        <v>3668591</v>
       </c>
       <c r="K104" t="n">
         <v>3668591</v>
       </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>656560</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
+      <c r="L104" t="n">
+        <v>76</v>
+      </c>
+      <c r="M104" t="n">
+        <v>656560</v>
+      </c>
+      <c r="N104" t="n">
+        <v>5534790301193100</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>5534790301193100</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="n">
-        <v>109</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D105" t="n">
-        <v>5534790301193100</v>
-      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F105" t="n">
-        <v>16000000</v>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -7027,20 +7019,28 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="J105" t="n">
-        <v>3668591</v>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>3668591</t>
+        </is>
       </c>
       <c r="K105" t="n">
         <v>3668591</v>
       </c>
-      <c r="L105" t="n">
-        <v>76</v>
-      </c>
-      <c r="M105" t="n">
-        <v>656560</v>
-      </c>
-      <c r="N105" t="n">
-        <v>5534790301193100</v>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
+      <c r="N105" t="inlineStr">
+        <is>
+          <t>5534790301193100</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -7170,10 +7170,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+      <c r="A108" t="n">
+        <v>18</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -7185,20 +7183,16 @@
           <t>098963 PENGADILAN NEGERI BATURAJA</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>5534790302046000</t>
-        </is>
+      <c r="D108" t="n">
+        <v>5534790302046000</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>Fitrika</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>24000000</t>
-        </is>
+      <c r="F108" t="n">
+        <v>24000000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -7215,54 +7209,52 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>3500000</t>
-        </is>
+      <c r="J108" t="n">
+        <v>3500000</v>
       </c>
       <c r="K108" t="n">
         <v>3500000</v>
       </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>098963</t>
-        </is>
-      </c>
-      <c r="N108" t="inlineStr">
+      <c r="L108" t="n">
+        <v>5</v>
+      </c>
+      <c r="M108" t="n">
+        <v>98963</v>
+      </c>
+      <c r="N108" t="n">
+        <v>5534790302046000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>098963 PENGADILAN NEGERI BATURAJA</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>5534790302046000</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="n">
-        <v>18</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>098963 PENGADILAN NEGERI BATURAJA</t>
-        </is>
-      </c>
-      <c r="D109" t="n">
-        <v>5534790302046000</v>
-      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>Fitrika</t>
         </is>
       </c>
-      <c r="F109" t="n">
-        <v>24000000</v>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>24000000</t>
+        </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -7279,20 +7271,28 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J109" t="n">
-        <v>3500000</v>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>3500000</t>
+        </is>
       </c>
       <c r="K109" t="n">
         <v>3500000</v>
       </c>
-      <c r="L109" t="n">
-        <v>5</v>
-      </c>
-      <c r="M109" t="n">
-        <v>98963</v>
-      </c>
-      <c r="N109" t="n">
-        <v>5534790302046000</v>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>098963</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>5534790302046000</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -7478,10 +7478,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
+      <c r="A113" t="n">
+        <v>33</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -7493,20 +7491,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="D113" t="n">
+        <v>5534790301986200</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F113" t="n">
+        <v>10000000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -7523,54 +7517,52 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>3348270</t>
-        </is>
+      <c r="J113" t="n">
+        <v>3348270</v>
       </c>
       <c r="K113" t="n">
         <v>3348270</v>
       </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
-      <c r="N113" t="inlineStr">
+      <c r="L113" t="n">
+        <v>5</v>
+      </c>
+      <c r="M113" t="n">
+        <v>401944</v>
+      </c>
+      <c r="N113" t="n">
+        <v>5534790301986200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>5534790301986200</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="n">
-        <v>33</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="D114" t="n">
-        <v>5534790301986200</v>
-      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F114" t="n">
-        <v>10000000</v>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -7587,27 +7579,33 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J114" t="n">
-        <v>3348270</v>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>3348270</t>
+        </is>
       </c>
       <c r="K114" t="n">
         <v>3348270</v>
       </c>
-      <c r="L114" t="n">
-        <v>5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>401944</v>
-      </c>
-      <c r="N114" t="n">
-        <v>5534790301986200</v>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>87</t>
-        </is>
+      <c r="A115" t="n">
+        <v>87</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7619,20 +7617,16 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>5534790301979700</t>
-        </is>
+      <c r="D115" t="n">
+        <v>5534790301979700</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
+      <c r="F115" t="n">
+        <v>5000000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7649,54 +7643,52 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>3240885</t>
-        </is>
+      <c r="J115" t="n">
+        <v>3240885</v>
       </c>
       <c r="K115" t="n">
         <v>3240885</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N115" t="inlineStr">
+      <c r="L115" t="n">
+        <v>54</v>
+      </c>
+      <c r="M115" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N115" t="n">
+        <v>5534790301979700</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>5534790301979700</t>
         </is>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="n">
-        <v>87</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D116" t="n">
-        <v>5534790301979700</v>
-      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F116" t="n">
-        <v>5000000</v>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7713,20 +7705,28 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J116" t="n">
-        <v>3240885</v>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>3240885</t>
+        </is>
       </c>
       <c r="K116" t="n">
         <v>3240885</v>
       </c>
-      <c r="L116" t="n">
-        <v>54</v>
-      </c>
-      <c r="M116" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N116" t="n">
-        <v>5534790301979700</v>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N116" t="inlineStr">
+        <is>
+          <t>5534790301979700</t>
+        </is>
       </c>
     </row>
     <row r="117">
@@ -8164,8 +8164,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>68</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -8177,16 +8179,20 @@
           <t>553099 MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>6189500100334900</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>6189500100334900</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>KOMARUDIN</t>
         </is>
       </c>
-      <c r="F124" t="n">
-        <v>6000000</v>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -8203,52 +8209,54 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J124" t="n">
-        <v>2911500</v>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>2911500</t>
+        </is>
       </c>
       <c r="K124" t="n">
         <v>2911500</v>
       </c>
-      <c r="L124" t="n">
-        <v>25</v>
-      </c>
-      <c r="M124" t="n">
-        <v>553099</v>
-      </c>
-      <c r="N124" t="n">
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>553099</t>
+        </is>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>6189500100334900</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>68</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>025 KEMENTERIAN AGAMA</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>553099 MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
         <v>6189500100334900</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>025 KEMENTERIAN AGAMA</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>553099 MADRASAH TSANAWIYAH NEGERI 3 OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>6189500100334900</t>
-        </is>
-      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>KOMARUDIN</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F125" t="n">
+        <v>6000000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -8265,28 +8273,20 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>2911500</t>
-        </is>
+      <c r="J125" t="n">
+        <v>2911500</v>
       </c>
       <c r="K125" t="n">
         <v>2911500</v>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>025</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>553099</t>
-        </is>
-      </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>6189500100334900</t>
-        </is>
+      <c r="L125" t="n">
+        <v>25</v>
+      </c>
+      <c r="M125" t="n">
+        <v>553099</v>
+      </c>
+      <c r="N125" t="n">
+        <v>6189500100334900</v>
       </c>
     </row>
     <row r="126">
@@ -8724,8 +8724,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>15</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -8737,16 +8739,20 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>5534790301986200</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F133" t="n">
-        <v>10000000</v>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -8763,52 +8769,54 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J133" t="n">
-        <v>2625670</v>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>2625670</t>
+        </is>
       </c>
       <c r="K133" t="n">
         <v>2625670</v>
       </c>
-      <c r="L133" t="n">
-        <v>5</v>
-      </c>
-      <c r="M133" t="n">
-        <v>401944</v>
-      </c>
-      <c r="N133" t="n">
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>15</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
         <v>5534790301986200</v>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
-      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F134" t="n">
+        <v>10000000</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -8825,28 +8833,20 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>2625670</t>
-        </is>
+      <c r="J134" t="n">
+        <v>2625670</v>
       </c>
       <c r="K134" t="n">
         <v>2625670</v>
       </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="L134" t="n">
+        <v>5</v>
+      </c>
+      <c r="M134" t="n">
+        <v>401944</v>
+      </c>
+      <c r="N134" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="135">
@@ -8976,10 +8976,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
+      <c r="A137" t="n">
+        <v>107</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -8991,20 +8989,16 @@
           <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>5534790301193100</t>
-        </is>
+      <c r="D137" t="n">
+        <v>5534790301193100</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
+      <c r="F137" t="n">
+        <v>16000000</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -9021,54 +9015,52 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>2289406</t>
-        </is>
+      <c r="J137" t="n">
+        <v>2289406</v>
       </c>
       <c r="K137" t="n">
         <v>2289406</v>
       </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>656560</t>
-        </is>
-      </c>
-      <c r="N137" t="inlineStr">
+      <c r="L137" t="n">
+        <v>76</v>
+      </c>
+      <c r="M137" t="n">
+        <v>656560</v>
+      </c>
+      <c r="N137" t="n">
+        <v>5534790301193100</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
         <is>
           <t>5534790301193100</t>
         </is>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>107</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D138" t="n">
-        <v>5534790301193100</v>
-      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F138" t="n">
-        <v>16000000</v>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -9085,20 +9077,28 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J138" t="n">
-        <v>2289406</v>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>2289406</t>
+        </is>
       </c>
       <c r="K138" t="n">
         <v>2289406</v>
       </c>
-      <c r="L138" t="n">
-        <v>76</v>
-      </c>
-      <c r="M138" t="n">
-        <v>656560</v>
-      </c>
-      <c r="N138" t="n">
-        <v>5534790301193100</v>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>5534790301193100</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -9284,8 +9284,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>115</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -9297,16 +9299,20 @@
           <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>5534790301193100</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>5534790301193100</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F142" t="n">
-        <v>16000000</v>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -9323,52 +9329,54 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J142" t="n">
-        <v>2257445</v>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>2257445</t>
+        </is>
       </c>
       <c r="K142" t="n">
         <v>2257445</v>
       </c>
-      <c r="L142" t="n">
-        <v>76</v>
-      </c>
-      <c r="M142" t="n">
-        <v>656560</v>
-      </c>
-      <c r="N142" t="n">
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
+      <c r="N142" t="inlineStr">
+        <is>
+          <t>5534790301193100</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>115</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>5534790301193100</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>5534790301193100</t>
-        </is>
-      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>Gus Hendrawansa,SE</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
+      <c r="F143" t="n">
+        <v>16000000</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -9385,33 +9393,27 @@
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>2257445</t>
-        </is>
+      <c r="J143" t="n">
+        <v>2257445</v>
       </c>
       <c r="K143" t="n">
         <v>2257445</v>
       </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>656560</t>
-        </is>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>5534790301193100</t>
-        </is>
+      <c r="L143" t="n">
+        <v>76</v>
+      </c>
+      <c r="M143" t="n">
+        <v>656560</v>
+      </c>
+      <c r="N143" t="n">
+        <v>5534790301193100</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>53</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -9423,16 +9425,20 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>4340750300129200</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F144" t="n">
-        <v>10000000</v>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -9449,52 +9455,54 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J144" t="n">
-        <v>2241786</v>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>2241786</t>
+        </is>
       </c>
       <c r="K144" t="n">
         <v>2241786</v>
       </c>
-      <c r="L144" t="n">
-        <v>15</v>
-      </c>
-      <c r="M144" t="n">
-        <v>527975</v>
-      </c>
-      <c r="N144" t="n">
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>4340750300129200</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>53</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>4340750300129200</v>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
-      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F145" t="n">
+        <v>10000000</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -9511,28 +9519,20 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>2241786</t>
-        </is>
+      <c r="J145" t="n">
+        <v>2241786</v>
       </c>
       <c r="K145" t="n">
         <v>2241786</v>
       </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>527975</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="L145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M145" t="n">
+        <v>527975</v>
+      </c>
+      <c r="N145" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
     <row r="146">
@@ -9662,8 +9662,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>76</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -9675,16 +9677,20 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>5534790301979700</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>5534790301979700</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F148" t="n">
-        <v>5000000</v>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -9701,52 +9707,54 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="J148" t="n">
-        <v>2111897</v>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>2111897</t>
+        </is>
       </c>
       <c r="K148" t="n">
         <v>2111897</v>
       </c>
-      <c r="L148" t="n">
-        <v>54</v>
-      </c>
-      <c r="M148" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N148" t="n">
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N148" t="inlineStr">
+        <is>
+          <t>5534790301979700</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>76</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
         <v>5534790301979700</v>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>5534790301979700</t>
-        </is>
-      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
+      <c r="F149" t="n">
+        <v>5000000</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -9763,35 +9771,25 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>2111897</t>
-        </is>
+      <c r="J149" t="n">
+        <v>2111897</v>
       </c>
       <c r="K149" t="n">
         <v>2111897</v>
       </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>5534790301979700</t>
-        </is>
+      <c r="L149" t="n">
+        <v>54</v>
+      </c>
+      <c r="M149" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N149" t="n">
+        <v>5534790301979700</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
+      <c r="A150" t="n">
+        <v>112</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -9803,20 +9801,16 @@
           <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>5534790301925400</t>
-        </is>
+      <c r="D150" t="n">
+        <v>5534790301925400</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>IRTO SUNARDI</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>16000000</t>
-        </is>
+      <c r="F150" t="n">
+        <v>16000000</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -9833,54 +9827,52 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>2065000</t>
-        </is>
+      <c r="J150" t="n">
+        <v>2065000</v>
       </c>
       <c r="K150" t="n">
         <v>2065000</v>
       </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
-        <is>
-          <t>656560</t>
-        </is>
-      </c>
-      <c r="N150" t="inlineStr">
+      <c r="L150" t="n">
+        <v>76</v>
+      </c>
+      <c r="M150" t="n">
+        <v>656560</v>
+      </c>
+      <c r="N150" t="n">
+        <v>5534790301925400</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>5534790301925400</t>
         </is>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>112</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>656560 KPU  KABUPATEN OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D151" t="n">
-        <v>5534790301925400</v>
-      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>IRTO SUNARDI</t>
         </is>
       </c>
-      <c r="F151" t="n">
-        <v>16000000</v>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>16000000</t>
+        </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -9897,27 +9889,33 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J151" t="n">
-        <v>2065000</v>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>2065000</t>
+        </is>
       </c>
       <c r="K151" t="n">
         <v>2065000</v>
       </c>
-      <c r="L151" t="n">
-        <v>76</v>
-      </c>
-      <c r="M151" t="n">
-        <v>656560</v>
-      </c>
-      <c r="N151" t="n">
-        <v>5534790301925400</v>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>656560</t>
+        </is>
+      </c>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>5534790301925400</t>
+        </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
+      <c r="A152" t="n">
+        <v>19</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -9929,20 +9927,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="D152" t="n">
+        <v>5534790301986200</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F152" t="n">
+        <v>10000000</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -9959,54 +9953,52 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>1933320</t>
-        </is>
+      <c r="J152" t="n">
+        <v>1933320</v>
       </c>
       <c r="K152" t="n">
         <v>1933320</v>
       </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
-      <c r="N152" t="inlineStr">
+      <c r="L152" t="n">
+        <v>5</v>
+      </c>
+      <c r="M152" t="n">
+        <v>401944</v>
+      </c>
+      <c r="N152" t="n">
+        <v>5534790301986200</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
         <is>
           <t>5534790301986200</t>
         </is>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>19</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="D153" t="n">
-        <v>5534790301986200</v>
-      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F153" t="n">
-        <v>10000000</v>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -10023,27 +10015,33 @@
           <t>2025-07</t>
         </is>
       </c>
-      <c r="J153" t="n">
-        <v>1933320</v>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>1933320</t>
+        </is>
       </c>
       <c r="K153" t="n">
         <v>1933320</v>
       </c>
-      <c r="L153" t="n">
-        <v>5</v>
-      </c>
-      <c r="M153" t="n">
-        <v>401944</v>
-      </c>
-      <c r="N153" t="n">
-        <v>5534790301986200</v>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>5534790301986200</t>
+        </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
+      <c r="A154" t="n">
+        <v>106</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -10055,20 +10053,16 @@
           <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>4365830950004700</t>
-        </is>
+      <c r="D154" t="n">
+        <v>4365830950004700</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>INDAH MUHSINAH</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>1900000</t>
-        </is>
+      <c r="F154" t="n">
+        <v>1900000</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -10085,54 +10079,52 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>1904397</t>
-        </is>
+      <c r="J154" t="n">
+        <v>1904397</v>
       </c>
       <c r="K154" t="n">
         <v>1904397</v>
       </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>076</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>656574</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
+      <c r="L154" t="n">
+        <v>76</v>
+      </c>
+      <c r="M154" t="n">
+        <v>656574</v>
+      </c>
+      <c r="N154" t="n">
+        <v>4365830950004700</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>076 KOMISI PEMILIHAN UMUM</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>4365830950004700</t>
         </is>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>106</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>076 KOMISI PEMILIHAN UMUM</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>656574 KPU  KABUPATEN OGAN KOMERING ULU SELATAN</t>
-        </is>
-      </c>
-      <c r="D155" t="n">
-        <v>4365830950004700</v>
-      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>INDAH MUHSINAH</t>
         </is>
       </c>
-      <c r="F155" t="n">
-        <v>1900000</v>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1900000</t>
+        </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -10149,20 +10141,28 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J155" t="n">
-        <v>1904397</v>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>1904397</t>
+        </is>
       </c>
       <c r="K155" t="n">
         <v>1904397</v>
       </c>
-      <c r="L155" t="n">
-        <v>76</v>
-      </c>
-      <c r="M155" t="n">
-        <v>656574</v>
-      </c>
-      <c r="N155" t="n">
-        <v>4365830950004700</v>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>656574</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>4365830950004700</t>
+        </is>
       </c>
     </row>
     <row r="156">
@@ -10292,10 +10292,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
+      <c r="A158" t="n">
+        <v>72</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -10307,20 +10305,16 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>5534790301979700</t>
-        </is>
+      <c r="D158" t="n">
+        <v>5534790301979700</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>5000000</t>
-        </is>
+      <c r="F158" t="n">
+        <v>5000000</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -10337,54 +10331,52 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>1826019</t>
-        </is>
+      <c r="J158" t="n">
+        <v>1826019</v>
       </c>
       <c r="K158" t="n">
         <v>1826019</v>
       </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N158" t="inlineStr">
+      <c r="L158" t="n">
+        <v>54</v>
+      </c>
+      <c r="M158" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N158" t="n">
+        <v>5534790301979700</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
         <is>
           <t>5534790301979700</t>
         </is>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>72</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D159" t="n">
-        <v>5534790301979700</v>
-      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>Uswar M Al Ghifari AP</t>
         </is>
       </c>
-      <c r="F159" t="n">
-        <v>5000000</v>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -10401,20 +10393,28 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J159" t="n">
-        <v>1826019</v>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>1826019</t>
+        </is>
       </c>
       <c r="K159" t="n">
         <v>1826019</v>
       </c>
-      <c r="L159" t="n">
-        <v>54</v>
-      </c>
-      <c r="M159" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N159" t="n">
-        <v>5534790301979700</v>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>5534790301979700</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -10670,8 +10670,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>70</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -10683,16 +10685,20 @@
           <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>6189500100105300</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>6189500100105300</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>Mukti Riadi</t>
         </is>
       </c>
-      <c r="F164" t="n">
-        <v>10000000</v>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -10709,52 +10715,54 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="J164" t="n">
-        <v>1650000</v>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>1650000</t>
+        </is>
       </c>
       <c r="K164" t="n">
         <v>1650000</v>
       </c>
-      <c r="L164" t="n">
-        <v>54</v>
-      </c>
-      <c r="M164" t="n">
-        <v>428258</v>
-      </c>
-      <c r="N164" t="n">
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr">
+        <is>
+          <t>6189500100105300</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>70</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
         <v>6189500100105300</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>6189500100105300</t>
-        </is>
-      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>Mukti Riadi</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F165" t="n">
+        <v>10000000</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -10771,35 +10779,25 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>1650000</t>
-        </is>
+      <c r="J165" t="n">
+        <v>1650000</v>
       </c>
       <c r="K165" t="n">
         <v>1650000</v>
       </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr">
-        <is>
-          <t>6189500100105300</t>
-        </is>
+      <c r="L165" t="n">
+        <v>54</v>
+      </c>
+      <c r="M165" t="n">
+        <v>428258</v>
+      </c>
+      <c r="N165" t="n">
+        <v>6189500100105300</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
+      <c r="A166" t="n">
+        <v>81</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -10811,20 +10809,16 @@
           <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
+      <c r="D166" t="n">
+        <v>5534790302233800</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
+      <c r="F166" t="n">
+        <v>18000000</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -10841,54 +10835,52 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>1517640</t>
-        </is>
+      <c r="J166" t="n">
+        <v>1517640</v>
       </c>
       <c r="K166" t="n">
         <v>1517640</v>
       </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
-      <c r="N166" t="inlineStr">
+      <c r="L166" t="n">
+        <v>54</v>
+      </c>
+      <c r="M166" t="n">
+        <v>428258</v>
+      </c>
+      <c r="N166" t="n">
+        <v>5534790302233800</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
         <is>
           <t>5534790302233800</t>
         </is>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>81</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D167" t="n">
-        <v>5534790302233800</v>
-      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F167" t="n">
-        <v>18000000</v>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -10905,25 +10897,35 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J167" t="n">
-        <v>1517640</v>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>1517640</t>
+        </is>
       </c>
       <c r="K167" t="n">
         <v>1517640</v>
       </c>
-      <c r="L167" t="n">
-        <v>54</v>
-      </c>
-      <c r="M167" t="n">
-        <v>428258</v>
-      </c>
-      <c r="N167" t="n">
-        <v>5534790302233800</v>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="N167" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>45</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -10935,16 +10937,20 @@
           <t>685001 PUSLATPUR KODIKLATAD</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>5534790303657500</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>5534790303657500</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>M. REDO</t>
         </is>
       </c>
-      <c r="F168" t="n">
-        <v>3000000</v>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -10961,52 +10967,54 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J168" t="n">
-        <v>1500000</v>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>1500000</t>
+        </is>
       </c>
       <c r="K168" t="n">
         <v>1500000</v>
       </c>
-      <c r="L168" t="n">
-        <v>12</v>
-      </c>
-      <c r="M168" t="n">
-        <v>685001</v>
-      </c>
-      <c r="N168" t="n">
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>685001</t>
+        </is>
+      </c>
+      <c r="N168" t="inlineStr">
+        <is>
+          <t>5534790303657500</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>45</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>012 KEMENTERIAN PERTAHANAN</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>685001 PUSLATPUR KODIKLATAD</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
         <v>5534790303657500</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>012 KEMENTERIAN PERTAHANAN</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>685001 PUSLATPUR KODIKLATAD</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>5534790303657500</t>
-        </is>
-      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>M. REDO</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>3000000</t>
-        </is>
+      <c r="F169" t="n">
+        <v>3000000</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -11023,28 +11031,20 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>1500000</t>
-        </is>
+      <c r="J169" t="n">
+        <v>1500000</v>
       </c>
       <c r="K169" t="n">
         <v>1500000</v>
       </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>012</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>685001</t>
-        </is>
-      </c>
-      <c r="N169" t="inlineStr">
-        <is>
-          <t>5534790303657500</t>
-        </is>
+      <c r="L169" t="n">
+        <v>12</v>
+      </c>
+      <c r="M169" t="n">
+        <v>685001</v>
+      </c>
+      <c r="N169" t="n">
+        <v>5534790303657500</v>
       </c>
     </row>
     <row r="170">
@@ -11174,8 +11174,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>46</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -11187,16 +11189,20 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>4895940300052500</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>4895940300052500</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
           <t>TRI WIDIYONO</t>
         </is>
       </c>
-      <c r="F172" t="n">
-        <v>70000000</v>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>70000000</t>
+        </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -11213,52 +11219,54 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J172" t="n">
-        <v>1489998</v>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>1489998</t>
+        </is>
       </c>
       <c r="K172" t="n">
         <v>1489998</v>
       </c>
-      <c r="L172" t="n">
-        <v>15</v>
-      </c>
-      <c r="M172" t="n">
-        <v>527975</v>
-      </c>
-      <c r="N172" t="n">
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>527975</t>
+        </is>
+      </c>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>4895940300052500</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>46</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>015 KEMENTERIAN KEUANGAN</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
         <v>4895940300052500</v>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>015 KEMENTERIAN KEUANGAN</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>4895940300052500</t>
-        </is>
-      </c>
       <c r="E173" t="inlineStr">
         <is>
           <t>TRI WIDIYONO</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>70000000</t>
-        </is>
+      <c r="F173" t="n">
+        <v>70000000</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -11275,33 +11283,27 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J173" t="inlineStr">
-        <is>
-          <t>1489998</t>
-        </is>
+      <c r="J173" t="n">
+        <v>1489998</v>
       </c>
       <c r="K173" t="n">
         <v>1489998</v>
       </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>527975</t>
-        </is>
-      </c>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>4895940300052500</t>
-        </is>
+      <c r="L173" t="n">
+        <v>15</v>
+      </c>
+      <c r="M173" t="n">
+        <v>527975</v>
+      </c>
+      <c r="N173" t="n">
+        <v>4895940300052500</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>89</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -11313,16 +11315,20 @@
           <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>5534790303539900</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>5534790303539900</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
           <t>YUSRA YURIZA</t>
         </is>
       </c>
-      <c r="F174" t="n">
-        <v>14000000</v>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>14000000</t>
+        </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -11339,52 +11345,54 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J174" t="n">
-        <v>1392000</v>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>1392000</t>
+        </is>
       </c>
       <c r="K174" t="n">
         <v>1392000</v>
       </c>
-      <c r="L174" t="n">
-        <v>54</v>
-      </c>
-      <c r="M174" t="n">
-        <v>668529</v>
-      </c>
-      <c r="N174" t="n">
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>668529</t>
+        </is>
+      </c>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>5534790303539900</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>89</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
         <v>5534790303539900</v>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>5534790303539900</t>
-        </is>
-      </c>
       <c r="E175" t="inlineStr">
         <is>
           <t>YUSRA YURIZA</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>14000000</t>
-        </is>
+      <c r="F175" t="n">
+        <v>14000000</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -11401,28 +11409,20 @@
           <t>2025-08</t>
         </is>
       </c>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>1392000</t>
-        </is>
+      <c r="J175" t="n">
+        <v>1392000</v>
       </c>
       <c r="K175" t="n">
         <v>1392000</v>
       </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>668529</t>
-        </is>
-      </c>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>5534790303539900</t>
-        </is>
+      <c r="L175" t="n">
+        <v>54</v>
+      </c>
+      <c r="M175" t="n">
+        <v>668529</v>
+      </c>
+      <c r="N175" t="n">
+        <v>5534790303539900</v>
       </c>
     </row>
     <row r="176">
@@ -11482,8 +11482,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>78</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -11495,16 +11497,20 @@
           <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>5534790302233800</v>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F177" t="n">
-        <v>18000000</v>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>18000000</t>
+        </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -11521,52 +11527,54 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="J177" t="n">
-        <v>1290545</v>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>1290545</t>
+        </is>
       </c>
       <c r="K177" t="n">
         <v>1290545</v>
       </c>
-      <c r="L177" t="n">
-        <v>54</v>
-      </c>
-      <c r="M177" t="n">
-        <v>428258</v>
-      </c>
-      <c r="N177" t="n">
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>428258</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>5534790302233800</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>78</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
         <v>5534790302233800</v>
       </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>428258 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
-      </c>
       <c r="E178" t="inlineStr">
         <is>
           <t>DEKI ZULKARNAIN,S.ST</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>18000000</t>
-        </is>
+      <c r="F178" t="n">
+        <v>18000000</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -11583,35 +11591,25 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>1290545</t>
-        </is>
+      <c r="J178" t="n">
+        <v>1290545</v>
       </c>
       <c r="K178" t="n">
         <v>1290545</v>
       </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>428258</t>
-        </is>
-      </c>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>5534790302233800</t>
-        </is>
+      <c r="L178" t="n">
+        <v>54</v>
+      </c>
+      <c r="M178" t="n">
+        <v>428258</v>
+      </c>
+      <c r="N178" t="n">
+        <v>5534790302233800</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A179" t="n">
+        <v>12</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -11623,20 +11621,16 @@
           <t>402267 PENGADILAN AGAMA BATURAJA</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>5534790302077700</t>
-        </is>
+      <c r="D179" t="n">
+        <v>5534790302077700</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>TEDDY NUANSYAH</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F179" t="n">
+        <v>10000000</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -11653,54 +11647,52 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="J179" t="inlineStr">
-        <is>
-          <t>1168200</t>
-        </is>
+      <c r="J179" t="n">
+        <v>1168200</v>
       </c>
       <c r="K179" t="n">
         <v>1168200</v>
       </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>402267</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr">
+      <c r="L179" t="n">
+        <v>5</v>
+      </c>
+      <c r="M179" t="n">
+        <v>402267</v>
+      </c>
+      <c r="N179" t="n">
+        <v>5534790302077700</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>402267 PENGADILAN AGAMA BATURAJA</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
         <is>
           <t>5534790302077700</t>
         </is>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="n">
-        <v>12</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>402267 PENGADILAN AGAMA BATURAJA</t>
-        </is>
-      </c>
-      <c r="D180" t="n">
-        <v>5534790302077700</v>
-      </c>
       <c r="E180" t="inlineStr">
         <is>
           <t>TEDDY NUANSYAH</t>
         </is>
       </c>
-      <c r="F180" t="n">
-        <v>10000000</v>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -11717,25 +11709,35 @@
           <t>2025-05</t>
         </is>
       </c>
-      <c r="J180" t="n">
-        <v>1168200</v>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>1168200</t>
+        </is>
       </c>
       <c r="K180" t="n">
         <v>1168200</v>
       </c>
-      <c r="L180" t="n">
-        <v>5</v>
-      </c>
-      <c r="M180" t="n">
-        <v>402267</v>
-      </c>
-      <c r="N180" t="n">
-        <v>5534790302077700</v>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>402267</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>5534790302077700</t>
+        </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>43</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -11747,16 +11749,20 @@
           <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D181" t="n">
-        <v>5534790303636200</v>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>5534790303636200</t>
+        </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
           <t>TUWAH KELANA</t>
         </is>
       </c>
-      <c r="F181" t="n">
-        <v>6000000</v>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -11773,52 +11779,54 @@
           <t>2025-12</t>
         </is>
       </c>
-      <c r="J181" t="n">
-        <v>1160190</v>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>1160190</t>
+        </is>
       </c>
       <c r="K181" t="n">
         <v>1160190</v>
       </c>
-      <c r="L181" t="n">
-        <v>6</v>
-      </c>
-      <c r="M181" t="n">
-        <v>7130</v>
-      </c>
-      <c r="N181" t="n">
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>5534790303636200</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>43</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
         <v>5534790303636200</v>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>5534790303636200</t>
-        </is>
-      </c>
       <c r="E182" t="inlineStr">
         <is>
           <t>TUWAH KELANA</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F182" t="n">
+        <v>6000000</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -11835,33 +11843,25 @@
           <t>2025-12</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr">
-        <is>
-          <t>1160190</t>
-        </is>
+      <c r="J182" t="n">
+        <v>1160190</v>
       </c>
       <c r="K182" t="n">
         <v>1160190</v>
       </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="N182" t="inlineStr">
-        <is>
-          <t>5534790303636200</t>
-        </is>
+      <c r="L182" t="n">
+        <v>6</v>
+      </c>
+      <c r="M182" t="n">
+        <v>7130</v>
+      </c>
+      <c r="N182" t="n">
+        <v>5534790303636200</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="J183" t="n">
@@ -11917,7 +11917,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -11952,7 +11952,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J184" t="n">
@@ -12224,10 +12224,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
+      <c r="A189" t="n">
+        <v>73</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -12239,20 +12237,16 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>5534790302349000</t>
-        </is>
+      <c r="D189" t="n">
+        <v>5534790302349000</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
           <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F189" t="n">
+        <v>6000000</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -12269,54 +12263,52 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>1042470</t>
-        </is>
+      <c r="J189" t="n">
+        <v>1042470</v>
       </c>
       <c r="K189" t="n">
         <v>1042470</v>
       </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N189" t="inlineStr">
+      <c r="L189" t="n">
+        <v>54</v>
+      </c>
+      <c r="M189" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N189" t="n">
+        <v>5534790302349000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>5534790302349000</t>
         </is>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="n">
-        <v>73</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D190" t="n">
-        <v>5534790302349000</v>
-      </c>
       <c r="E190" t="inlineStr">
         <is>
           <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
-      <c r="F190" t="n">
-        <v>6000000</v>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -12333,20 +12325,28 @@
           <t>2025-02</t>
         </is>
       </c>
-      <c r="J190" t="n">
-        <v>1042470</v>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>1042470</t>
+        </is>
       </c>
       <c r="K190" t="n">
         <v>1042470</v>
       </c>
-      <c r="L190" t="n">
-        <v>54</v>
-      </c>
-      <c r="M190" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N190" t="n">
-        <v>5534790302349000</v>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -12476,8 +12476,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>7</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -12489,16 +12491,20 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>6189500100029900</v>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>6189500100029900</t>
+        </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F193" t="n">
-        <v>6000000</v>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -12515,52 +12521,54 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="J193" t="n">
-        <v>885100</v>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>885100</t>
+        </is>
       </c>
       <c r="K193" t="n">
         <v>885100</v>
       </c>
-      <c r="L193" t="n">
-        <v>5</v>
-      </c>
-      <c r="M193" t="n">
-        <v>401944</v>
-      </c>
-      <c r="N193" t="n">
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>005</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>401944</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>6189500100029900</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>7</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005 MAHKAMAH AGUNG</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
         <v>6189500100029900</v>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>005 MAHKAMAH AGUNG</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>401944 PENGADILAN AGAMA MARTAPURA</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
-      </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F194" t="n">
+        <v>6000000</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -12577,28 +12585,20 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="J194" t="inlineStr">
-        <is>
-          <t>885100</t>
-        </is>
+      <c r="J194" t="n">
+        <v>885100</v>
       </c>
       <c r="K194" t="n">
         <v>885100</v>
       </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>401944</t>
-        </is>
-      </c>
-      <c r="N194" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="L194" t="n">
+        <v>5</v>
+      </c>
+      <c r="M194" t="n">
+        <v>401944</v>
+      </c>
+      <c r="N194" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="195">
@@ -12784,10 +12784,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
+      <c r="A198" t="n">
+        <v>97</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -12799,20 +12797,16 @@
           <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>5534790303539900</t>
-        </is>
+      <c r="D198" t="n">
+        <v>5534790303539900</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
           <t>YUSRA YURIZA</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>14000000</t>
-        </is>
+      <c r="F198" t="n">
+        <v>14000000</v>
       </c>
       <c r="G198" t="inlineStr">
         <is>
@@ -12829,54 +12823,52 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>689000</t>
-        </is>
+      <c r="J198" t="n">
+        <v>689000</v>
       </c>
       <c r="K198" t="n">
         <v>689000</v>
       </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
-        <is>
-          <t>668529</t>
-        </is>
-      </c>
-      <c r="N198" t="inlineStr">
+      <c r="L198" t="n">
+        <v>54</v>
+      </c>
+      <c r="M198" t="n">
+        <v>668529</v>
+      </c>
+      <c r="N198" t="n">
+        <v>5534790303539900</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
         <is>
           <t>5534790303539900</t>
         </is>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="n">
-        <v>97</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>668529 BADAN PUSAT STATISTIK KAB. OGAN KOMERING ULU TIMUR</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>5534790303539900</v>
-      </c>
       <c r="E199" t="inlineStr">
         <is>
           <t>YUSRA YURIZA</t>
         </is>
       </c>
-      <c r="F199" t="n">
-        <v>14000000</v>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>14000000</t>
+        </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
@@ -12893,25 +12885,35 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J199" t="n">
-        <v>689000</v>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>689000</t>
+        </is>
       </c>
       <c r="K199" t="n">
         <v>689000</v>
       </c>
-      <c r="L199" t="n">
-        <v>54</v>
-      </c>
-      <c r="M199" t="n">
-        <v>668529</v>
-      </c>
-      <c r="N199" t="n">
-        <v>5534790303539900</v>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>668529</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>5534790303539900</t>
+        </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>94</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -12923,16 +12925,20 @@
           <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>5534790302349000</v>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
           <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
-      <c r="F200" t="n">
-        <v>6000000</v>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
@@ -12949,52 +12955,54 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J200" t="n">
-        <v>673574</v>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>673574</t>
+        </is>
       </c>
       <c r="K200" t="n">
         <v>673574</v>
       </c>
-      <c r="L200" t="n">
-        <v>54</v>
-      </c>
-      <c r="M200" t="n">
-        <v>667215</v>
-      </c>
-      <c r="N200" t="n">
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>667215</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>5534790302349000</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>94</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>054 BADAN PUSAT STATISTIK</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
         <v>5534790302349000</v>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>054 BADAN PUSAT STATISTIK</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>667215 BADAN PUSAT STATISTIK KAB. OKU SELATAN</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>5534790302349000</t>
-        </is>
-      </c>
       <c r="E201" t="inlineStr">
         <is>
           <t>RIVAL ABDUL JABAR</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F201" t="n">
+        <v>6000000</v>
       </c>
       <c r="G201" t="inlineStr">
         <is>
@@ -13011,28 +13019,20 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J201" t="inlineStr">
-        <is>
-          <t>673574</t>
-        </is>
+      <c r="J201" t="n">
+        <v>673574</v>
       </c>
       <c r="K201" t="n">
         <v>673574</v>
       </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>054</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr">
-        <is>
-          <t>667215</t>
-        </is>
-      </c>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>5534790302349000</t>
-        </is>
+      <c r="L201" t="n">
+        <v>54</v>
+      </c>
+      <c r="M201" t="n">
+        <v>667215</v>
+      </c>
+      <c r="N201" t="n">
+        <v>5534790302349000</v>
       </c>
     </row>
     <row r="202">
@@ -13848,10 +13848,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
+      <c r="A215" t="n">
+        <v>42</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -13863,20 +13861,16 @@
           <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>5534790303636200</t>
-        </is>
+      <c r="D215" t="n">
+        <v>5534790303636200</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
           <t>TUWAH KELANA</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F215" t="n">
+        <v>6000000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -13893,54 +13887,52 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J215" t="inlineStr">
-        <is>
-          <t>160005</t>
-        </is>
+      <c r="J215" t="n">
+        <v>160005</v>
       </c>
       <c r="K215" t="n">
         <v>160005</v>
       </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>006</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>007130</t>
-        </is>
-      </c>
-      <c r="N215" t="inlineStr">
+      <c r="L215" t="n">
+        <v>6</v>
+      </c>
+      <c r="M215" t="n">
+        <v>7130</v>
+      </c>
+      <c r="N215" t="n">
+        <v>5534790303636200</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
         <is>
           <t>5534790303636200</t>
         </is>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="n">
-        <v>42</v>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>006 KEJAKSAAN REPUBLIK INDONESIA</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr">
-        <is>
-          <t>007130 KEJAKSAAN NEGERI OGAN KOMERING ULU</t>
-        </is>
-      </c>
-      <c r="D216" t="n">
-        <v>5534790303636200</v>
-      </c>
       <c r="E216" t="inlineStr">
         <is>
           <t>TUWAH KELANA</t>
         </is>
       </c>
-      <c r="F216" t="n">
-        <v>6000000</v>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>6000000</t>
+        </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -13957,20 +13949,28 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J216" t="n">
-        <v>160005</v>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>160005</t>
+        </is>
       </c>
       <c r="K216" t="n">
         <v>160005</v>
       </c>
-      <c r="L216" t="n">
-        <v>6</v>
-      </c>
-      <c r="M216" t="n">
-        <v>7130</v>
-      </c>
-      <c r="N216" t="n">
-        <v>5534790303636200</v>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>006</t>
+        </is>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>007130</t>
+        </is>
+      </c>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>5534790303636200</t>
+        </is>
       </c>
     </row>
     <row r="217">
@@ -14101,7 +14101,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -14136,7 +14136,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="J219" t="n">
@@ -14157,7 +14157,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J220" t="n">

--- a/data_kkp/KKP_MASTER.xlsx
+++ b/data_kkp/KKP_MASTER.xlsx
@@ -7060,10 +7060,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A115" t="n">
+        <v>3</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -7075,20 +7073,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="D115" t="n">
+        <v>6189500100029900</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F115" t="n">
+        <v>6000000</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -7105,35 +7099,27 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>2793700</t>
-        </is>
+      <c r="J115" t="n">
+        <v>2793700</v>
       </c>
       <c r="K115" t="n">
         <v>2793700</v>
       </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L115" t="n">
+        <v>5</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N115" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="N115" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A116" t="n">
+        <v>3</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -7145,20 +7131,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="D116" t="n">
+        <v>6189500100029900</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F116" t="n">
+        <v>6000000</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -7175,35 +7157,27 @@
           <t>2025-01</t>
         </is>
       </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>2793700</t>
-        </is>
+      <c r="J116" t="n">
+        <v>2793700</v>
       </c>
       <c r="K116" t="n">
         <v>2793700</v>
       </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L116" t="n">
+        <v>5</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N116" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="N116" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A117" t="n">
+        <v>7</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -7215,20 +7189,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="D117" t="n">
+        <v>6189500100029900</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F117" t="n">
+        <v>6000000</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -7245,35 +7215,27 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>885100</t>
-        </is>
+      <c r="J117" t="n">
+        <v>885100</v>
       </c>
       <c r="K117" t="n">
         <v>885100</v>
       </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L117" t="n">
+        <v>5</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N117" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="N117" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A118" t="n">
+        <v>7</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -7285,20 +7247,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="D118" t="n">
+        <v>6189500100029900</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F118" t="n">
+        <v>6000000</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -7315,35 +7273,27 @@
           <t>2025-03</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>885100</t>
-        </is>
+      <c r="J118" t="n">
+        <v>885100</v>
       </c>
       <c r="K118" t="n">
         <v>885100</v>
       </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L118" t="n">
+        <v>5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N118" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="N118" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A119" t="n">
+        <v>10</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -7355,20 +7305,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="D119" t="n">
+        <v>6189500100029900</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F119" t="n">
+        <v>6000000</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -7385,35 +7331,27 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="J119" t="inlineStr">
-        <is>
-          <t>1496500</t>
-        </is>
+      <c r="J119" t="n">
+        <v>1496500</v>
       </c>
       <c r="K119" t="n">
         <v>1496500</v>
       </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L119" t="n">
+        <v>5</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="N119" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A120" t="n">
+        <v>10</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -7425,20 +7363,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="D120" t="n">
+        <v>6189500100029900</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>INDRA</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>6000000</t>
-        </is>
+      <c r="F120" t="n">
+        <v>6000000</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -7455,35 +7389,27 @@
           <t>2025-04</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>1496500</t>
-        </is>
+      <c r="J120" t="n">
+        <v>1496500</v>
       </c>
       <c r="K120" t="n">
         <v>1496500</v>
       </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L120" t="n">
+        <v>5</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N120" t="inlineStr">
-        <is>
-          <t>6189500100029900</t>
-        </is>
+      <c r="N120" t="n">
+        <v>6189500100029900</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A121" t="n">
+        <v>15</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -7495,20 +7421,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="D121" t="n">
+        <v>5534790301986200</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F121" t="n">
+        <v>10000000</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -7525,35 +7447,27 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>2625670</t>
-        </is>
+      <c r="J121" t="n">
+        <v>2625670</v>
       </c>
       <c r="K121" t="n">
         <v>2625670</v>
       </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L121" t="n">
+        <v>5</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N121" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="N121" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A122" t="n">
+        <v>15</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -7565,20 +7479,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="D122" t="n">
+        <v>5534790301986200</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F122" t="n">
+        <v>10000000</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -7595,35 +7505,27 @@
           <t>2025-06</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>2625670</t>
-        </is>
+      <c r="J122" t="n">
+        <v>2625670</v>
       </c>
       <c r="K122" t="n">
         <v>2625670</v>
       </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L122" t="n">
+        <v>5</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N122" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="N122" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="A123" t="n">
+        <v>32</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -7635,20 +7537,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="D123" t="n">
+        <v>5534790301986200</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F123" t="n">
+        <v>10000000</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -7665,35 +7563,27 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>6652559</t>
-        </is>
+      <c r="J123" t="n">
+        <v>6652559</v>
       </c>
       <c r="K123" t="n">
         <v>6652559</v>
       </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L123" t="n">
+        <v>5</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N123" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="N123" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="A124" t="n">
+        <v>32</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -7705,20 +7595,16 @@
           <t>401944 PENGADILAN AGAMA MARTAPURA</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="D124" t="n">
+        <v>5534790301986200</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>MUHAMMAD AJI TAUFAN, S.H.</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F124" t="n">
+        <v>10000000</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -7735,35 +7621,27 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>6652559</t>
-        </is>
+      <c r="J124" t="n">
+        <v>6652559</v>
       </c>
       <c r="K124" t="n">
         <v>6652559</v>
       </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>005</t>
-        </is>
+      <c r="L124" t="n">
+        <v>5</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
           <t>401944</t>
         </is>
       </c>
-      <c r="N124" t="inlineStr">
-        <is>
-          <t>5534790301986200</t>
-        </is>
+      <c r="N124" t="n">
+        <v>5534790301986200</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A125" t="n">
+        <v>58</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -7775,20 +7653,16 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="D125" t="n">
+        <v>4340750300129200</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F125" t="n">
+        <v>10000000</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -7805,35 +7679,27 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>46960000</t>
-        </is>
+      <c r="J125" t="n">
+        <v>46960000</v>
       </c>
       <c r="K125" t="n">
         <v>46960000</v>
       </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+      <c r="L125" t="n">
+        <v>15</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
           <t>527975</t>
         </is>
       </c>
-      <c r="N125" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="N125" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
+      <c r="A126" t="n">
+        <v>58</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -7845,20 +7711,16 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="D126" t="n">
+        <v>4340750300129200</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F126" t="n">
+        <v>10000000</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -7875,35 +7737,27 @@
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>46960000</t>
-        </is>
+      <c r="J126" t="n">
+        <v>46960000</v>
       </c>
       <c r="K126" t="n">
         <v>46960000</v>
       </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+      <c r="L126" t="n">
+        <v>15</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
           <t>527975</t>
         </is>
       </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="N126" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="A127" t="n">
+        <v>62</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -7915,20 +7769,16 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="D127" t="n">
+        <v>4340750300129200</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F127" t="n">
+        <v>10000000</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -7945,35 +7795,27 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>28612620</t>
-        </is>
+      <c r="J127" t="n">
+        <v>28612620</v>
       </c>
       <c r="K127" t="n">
         <v>28612620</v>
       </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+      <c r="L127" t="n">
+        <v>15</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
           <t>527975</t>
         </is>
       </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="N127" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
+      <c r="A128" t="n">
+        <v>62</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -7985,20 +7827,16 @@
           <t>527975 KANTOR PELAYANAN PERBENDAHARAAN NEGARA BATURAJA</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="D128" t="n">
+        <v>4340750300129200</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>ARAFATUZ ZAKKY GULTOM</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>10000000</t>
-        </is>
+      <c r="F128" t="n">
+        <v>10000000</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -8015,28 +7853,22 @@
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>28612620</t>
-        </is>
+      <c r="J128" t="n">
+        <v>28612620</v>
       </c>
       <c r="K128" t="n">
         <v>28612620</v>
       </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>015</t>
-        </is>
+      <c r="L128" t="n">
+        <v>15</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
           <t>527975</t>
         </is>
       </c>
-      <c r="N128" t="inlineStr">
-        <is>
-          <t>4340750300129200</t>
-        </is>
+      <c r="N128" t="n">
+        <v>4340750300129200</v>
       </c>
     </row>
   </sheetData>
